--- a/HN SA 2016 ( DEPOSITOS )/DEPOSITOS JUNIO 2016.-/ALCOSUR.-.xlsx
+++ b/HN SA 2016 ( DEPOSITOS )/DEPOSITOS JUNIO 2016.-/ALCOSUR.-.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="127">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -118,9 +118,6 @@
     <t xml:space="preserve">001-001-3087</t>
   </si>
   <si>
-    <t xml:space="preserve">No Hay Boleta</t>
-  </si>
-  <si>
     <t xml:space="preserve">001-001-3773</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t xml:space="preserve">001-001-3090</t>
   </si>
   <si>
-    <t xml:space="preserve">No hay Boleta</t>
-  </si>
-  <si>
     <t xml:space="preserve">001-001-3783</t>
   </si>
   <si>
@@ -152,9 +146,6 @@
   </si>
   <si>
     <t xml:space="preserve">001-001-3108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No hay boleta</t>
   </si>
   <si>
     <t xml:space="preserve">001-001-3796</t>
@@ -524,7 +515,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -577,18 +568,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -618,10 +597,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -714,10 +689,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T1" activeCellId="0" sqref="N:T"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1101,23 +1076,18 @@
       <c r="K9" s="10"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="12" t="n">
-        <f aca="false">-H9</f>
-        <v>-71912000</v>
-      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>42524</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>14</v>
@@ -1139,23 +1109,18 @@
       <c r="K10" s="10"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="12" t="n">
-        <f aca="false">-H10</f>
-        <v>-17650000</v>
-      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>42524</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>14</v>
@@ -1194,10 +1159,10 @@
         <v>42524</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>14</v>
@@ -1219,23 +1184,18 @@
       <c r="K12" s="10"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O12" s="12" t="n">
-        <f aca="false">-H12</f>
-        <v>-35300000</v>
-      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>42524</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>14</v>
@@ -1257,23 +1217,18 @@
       <c r="K13" s="10"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O13" s="12" t="n">
-        <f aca="false">-H13</f>
-        <v>-40850000</v>
-      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>42527</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>14</v>
@@ -1295,23 +1250,18 @@
       <c r="K14" s="10"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="12" t="n">
-        <f aca="false">-H14</f>
-        <v>-19053500</v>
-      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>42527</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>14</v>
@@ -1333,23 +1283,18 @@
       <c r="K15" s="10"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="12" t="n">
-        <f aca="false">-H15</f>
-        <v>-14120000</v>
-      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>42527</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>14</v>
@@ -1371,23 +1316,18 @@
       <c r="K16" s="10"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" s="12" t="n">
-        <f aca="false">-H16</f>
-        <v>-25327000</v>
-      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>42529</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>14</v>
@@ -1409,23 +1349,18 @@
       <c r="K17" s="10"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O17" s="12" t="n">
-        <f aca="false">-H17</f>
-        <v>-124244000</v>
-      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>42529</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>14</v>
@@ -1447,23 +1382,18 @@
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O18" s="12" t="n">
-        <f aca="false">-H18</f>
-        <v>-106800000</v>
-      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>42530</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>14</v>
@@ -1485,23 +1415,18 @@
       <c r="K19" s="10"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O19" s="12" t="n">
-        <f aca="false">-H19</f>
-        <v>-22289000</v>
-      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>42530</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>14</v>
@@ -1523,23 +1448,18 @@
       <c r="K20" s="10"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O20" s="12" t="n">
-        <f aca="false">-H20</f>
-        <v>-32829000</v>
-      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>42531</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>14</v>
@@ -1561,23 +1481,18 @@
       <c r="K21" s="10"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O21" s="12" t="n">
-        <f aca="false">-H21</f>
-        <v>-17800000</v>
-      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>42531</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>14</v>
@@ -1614,10 +1529,10 @@
         <v>42531</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>14</v>
@@ -1656,10 +1571,10 @@
         <v>42531</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>14</v>
@@ -1698,10 +1613,10 @@
         <v>42531</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>14</v>
@@ -1740,10 +1655,10 @@
         <v>42534</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>14</v>
@@ -1781,22 +1696,22 @@
       <c r="A27" s="6" t="n">
         <v>42534</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="14" t="s">
+      <c r="B27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="15" t="n">
+      <c r="F27" s="11" t="n">
         <v>4000</v>
       </c>
-      <c r="G27" s="15" t="n">
+      <c r="G27" s="11" t="n">
         <v>4085</v>
       </c>
       <c r="H27" s="8" t="n">
@@ -1824,10 +1739,10 @@
         <v>42534</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>14</v>
@@ -1865,22 +1780,22 @@
       <c r="A29" s="6" t="n">
         <v>42534</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="15" t="n">
+      <c r="B29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="11" t="n">
         <v>5000</v>
       </c>
-      <c r="G29" s="15" t="n">
+      <c r="G29" s="11" t="n">
         <v>4050</v>
       </c>
       <c r="H29" s="8" t="n">
@@ -1905,22 +1820,22 @@
       <c r="A30" s="6" t="n">
         <v>42534</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="B30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="15" t="n">
+      <c r="F30" s="11" t="n">
         <v>10000</v>
       </c>
-      <c r="G30" s="15" t="n">
+      <c r="G30" s="11" t="n">
         <v>4085</v>
       </c>
       <c r="H30" s="8" t="n">
@@ -1948,10 +1863,10 @@
         <v>42535</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>14</v>
@@ -1989,34 +1904,34 @@
       <c r="A32" s="6" t="n">
         <v>42535</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="14" t="s">
+      <c r="B32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="15" t="n">
+      <c r="F32" s="11" t="n">
         <v>4000</v>
       </c>
-      <c r="G32" s="15" t="n">
+      <c r="G32" s="11" t="n">
         <v>3530</v>
       </c>
-      <c r="H32" s="16" t="n">
+      <c r="H32" s="13" t="n">
         <v>14120000</v>
       </c>
-      <c r="I32" s="17" t="n">
+      <c r="I32" s="14" t="n">
         <v>1949303</v>
       </c>
-      <c r="J32" s="18" t="n">
+      <c r="J32" s="15" t="n">
         <v>42562</v>
       </c>
-      <c r="K32" s="19"/>
+      <c r="K32" s="16"/>
       <c r="L32" s="5" t="s">
         <v>24</v>
       </c>
@@ -2029,34 +1944,34 @@
       <c r="A33" s="6" t="n">
         <v>42535</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="14" t="s">
+      <c r="B33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="15" t="n">
+      <c r="F33" s="11" t="n">
         <v>5300</v>
       </c>
-      <c r="G33" s="15" t="n">
+      <c r="G33" s="11" t="n">
         <v>4085</v>
       </c>
-      <c r="H33" s="16" t="n">
+      <c r="H33" s="13" t="n">
         <v>21650500</v>
       </c>
-      <c r="I33" s="17" t="n">
+      <c r="I33" s="14" t="n">
         <v>1949303</v>
       </c>
-      <c r="J33" s="18" t="n">
+      <c r="J33" s="15" t="n">
         <v>42562</v>
       </c>
-      <c r="K33" s="19" t="n">
+      <c r="K33" s="16" t="n">
         <v>35770500</v>
       </c>
       <c r="L33" s="5" t="s">
@@ -2071,22 +1986,22 @@
       <c r="A34" s="6" t="n">
         <v>42535</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="14" t="s">
+      <c r="B34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="15" t="n">
+      <c r="F34" s="11" t="n">
         <v>30000</v>
       </c>
-      <c r="G34" s="15" t="n">
+      <c r="G34" s="11" t="n">
         <v>3530</v>
       </c>
       <c r="H34" s="8" t="n">
@@ -2113,13 +2028,13 @@
       <c r="A35" s="6" t="n">
         <v>42537</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="14" t="s">
+      <c r="B35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E35" s="7" t="s">
@@ -2153,13 +2068,13 @@
       <c r="A36" s="6" t="n">
         <v>42537</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="14" t="s">
+      <c r="B36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="7" t="s">
@@ -2195,11 +2110,11 @@
       <c r="A37" s="6" t="n">
         <v>42537</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>74</v>
+      <c r="B37" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>14</v>
@@ -2213,7 +2128,7 @@
       <c r="G37" s="11" t="n">
         <v>3560</v>
       </c>
-      <c r="H37" s="20" t="n">
+      <c r="H37" s="17" t="n">
         <v>71200000</v>
       </c>
       <c r="I37" s="5" t="n">
@@ -2237,13 +2152,13 @@
       <c r="A38" s="6" t="n">
         <v>42537</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="14" t="s">
+      <c r="B38" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -2277,13 +2192,13 @@
       <c r="A39" s="6" t="n">
         <v>42537</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="14" t="s">
+      <c r="B39" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -2320,10 +2235,10 @@
         <v>42538</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>14</v>
@@ -2337,7 +2252,7 @@
       <c r="G40" s="11" t="n">
         <v>3560</v>
       </c>
-      <c r="H40" s="20" t="n">
+      <c r="H40" s="17" t="n">
         <v>31328000</v>
       </c>
       <c r="I40" s="5" t="n">
@@ -2361,13 +2276,13 @@
       <c r="A41" s="6" t="n">
         <v>42541</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="14" t="s">
+      <c r="B41" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="7" t="s">
@@ -2376,10 +2291,10 @@
       <c r="F41" s="11" t="n">
         <v>10200</v>
       </c>
-      <c r="G41" s="15" t="n">
+      <c r="G41" s="11" t="n">
         <v>3560</v>
       </c>
-      <c r="H41" s="21" t="n">
+      <c r="H41" s="18" t="n">
         <v>36312000</v>
       </c>
       <c r="I41" s="5" t="n">
@@ -2404,24 +2319,24 @@
         <v>42541</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="15" t="n">
+      <c r="F42" s="11" t="n">
         <v>5300</v>
       </c>
-      <c r="G42" s="15" t="n">
+      <c r="G42" s="11" t="n">
         <v>3530</v>
       </c>
-      <c r="H42" s="20" t="n">
+      <c r="H42" s="17" t="n">
         <v>18709000</v>
       </c>
       <c r="I42" s="5" t="n">
@@ -2446,10 +2361,10 @@
         <v>42542</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>14</v>
@@ -2460,10 +2375,10 @@
       <c r="F43" s="11" t="n">
         <v>13700</v>
       </c>
-      <c r="G43" s="15" t="n">
+      <c r="G43" s="11" t="n">
         <v>3560</v>
       </c>
-      <c r="H43" s="21" t="n">
+      <c r="H43" s="18" t="n">
         <v>48772000</v>
       </c>
       <c r="I43" s="5" t="n">
@@ -2488,10 +2403,10 @@
         <v>42542</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>14</v>
@@ -2502,10 +2417,10 @@
       <c r="F44" s="11" t="n">
         <v>15000</v>
       </c>
-      <c r="G44" s="15" t="n">
+      <c r="G44" s="11" t="n">
         <v>3560</v>
       </c>
-      <c r="H44" s="21" t="n">
+      <c r="H44" s="18" t="n">
         <v>53400000</v>
       </c>
       <c r="I44" s="5" t="n">
@@ -2529,25 +2444,25 @@
       <c r="A45" s="6" t="n">
         <v>42542</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="14" t="s">
+      <c r="B45" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="15" t="n">
+      <c r="F45" s="11" t="n">
         <v>15000</v>
       </c>
-      <c r="G45" s="15" t="n">
+      <c r="G45" s="11" t="n">
         <v>3530</v>
       </c>
-      <c r="H45" s="20" t="n">
+      <c r="H45" s="17" t="n">
         <v>52950000</v>
       </c>
       <c r="I45" s="5" t="n">
@@ -2569,25 +2484,25 @@
       <c r="A46" s="6" t="n">
         <v>42542</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="14" t="s">
+      <c r="B46" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="15" t="n">
+      <c r="F46" s="11" t="n">
         <v>4900</v>
       </c>
-      <c r="G46" s="15" t="n">
+      <c r="G46" s="11" t="n">
         <v>4085</v>
       </c>
-      <c r="H46" s="20" t="n">
+      <c r="H46" s="17" t="n">
         <v>20016500</v>
       </c>
       <c r="I46" s="5" t="n">
@@ -2612,10 +2527,10 @@
         <v>42542</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>14</v>
@@ -2626,10 +2541,10 @@
       <c r="F47" s="11" t="n">
         <v>15000</v>
       </c>
-      <c r="G47" s="15" t="n">
+      <c r="G47" s="11" t="n">
         <v>3560</v>
       </c>
-      <c r="H47" s="21" t="n">
+      <c r="H47" s="18" t="n">
         <v>53400000</v>
       </c>
       <c r="I47" s="5"/>
@@ -2637,37 +2552,32 @@
       <c r="K47" s="10"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
-      <c r="N47" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O47" s="12" t="n">
-        <f aca="false">-H47</f>
-        <v>-53400000</v>
-      </c>
+      <c r="N47" s="5"/>
+      <c r="O47" s="12"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>42542</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="14" t="s">
+      <c r="B48" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="15" t="n">
+      <c r="F48" s="11" t="n">
         <v>15000</v>
       </c>
-      <c r="G48" s="15" t="n">
+      <c r="G48" s="11" t="n">
         <v>3530</v>
       </c>
-      <c r="H48" s="20" t="n">
+      <c r="H48" s="17" t="n">
         <v>52950000</v>
       </c>
       <c r="I48" s="5"/>
@@ -2675,23 +2585,18 @@
       <c r="K48" s="10"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
-      <c r="N48" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O48" s="12" t="n">
-        <f aca="false">-H48</f>
-        <v>-52950000</v>
-      </c>
+      <c r="N48" s="5"/>
+      <c r="O48" s="12"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>42538</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>14</v>
@@ -2705,7 +2610,7 @@
       <c r="G49" s="11" t="n">
         <v>3560</v>
       </c>
-      <c r="H49" s="20" t="n">
+      <c r="H49" s="17" t="n">
         <v>106800000</v>
       </c>
       <c r="I49" s="5" t="n">
@@ -2726,14 +2631,14 @@
       <c r="N49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="22" t="n">
+      <c r="A50" s="19" t="n">
         <v>42538</v>
       </c>
-      <c r="B50" s="23" t="s">
-        <v>95</v>
+      <c r="B50" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>14</v>
@@ -2772,10 +2677,10 @@
         <v>42543</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>14</v>
@@ -2789,7 +2694,7 @@
       <c r="G51" s="11" t="n">
         <v>3560</v>
       </c>
-      <c r="H51" s="21" t="n">
+      <c r="H51" s="18" t="n">
         <v>55180000</v>
       </c>
       <c r="I51" s="5" t="n">
@@ -2814,10 +2719,10 @@
         <v>42543</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>14</v>
@@ -2831,7 +2736,7 @@
       <c r="G52" s="11" t="n">
         <v>3560</v>
       </c>
-      <c r="H52" s="21" t="n">
+      <c r="H52" s="18" t="n">
         <v>32040000</v>
       </c>
       <c r="I52" s="5"/>
@@ -2839,37 +2744,32 @@
       <c r="K52" s="10"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
-      <c r="N52" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O52" s="12" t="n">
-        <f aca="false">-H52</f>
-        <v>-32040000</v>
-      </c>
+      <c r="N52" s="5"/>
+      <c r="O52" s="12"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>42544</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="15" t="n">
+      <c r="F53" s="11" t="n">
         <v>30000</v>
       </c>
-      <c r="G53" s="15" t="n">
+      <c r="G53" s="11" t="n">
         <v>3560</v>
       </c>
-      <c r="H53" s="24" t="n">
+      <c r="H53" s="18" t="n">
         <v>106800000</v>
       </c>
       <c r="I53" s="5"/>
@@ -2877,37 +2777,32 @@
       <c r="K53" s="10"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
-      <c r="N53" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O53" s="12" t="n">
-        <f aca="false">-H53</f>
-        <v>-106800000</v>
-      </c>
+      <c r="N53" s="5"/>
+      <c r="O53" s="12"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>42544</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F54" s="15" t="n">
+      <c r="F54" s="11" t="n">
         <v>13700</v>
       </c>
-      <c r="G54" s="15" t="n">
+      <c r="G54" s="11" t="n">
         <v>3560</v>
       </c>
-      <c r="H54" s="24" t="n">
+      <c r="H54" s="18" t="n">
         <v>48772000</v>
       </c>
       <c r="I54" s="5"/>
@@ -2915,37 +2810,32 @@
       <c r="K54" s="10"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
-      <c r="N54" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O54" s="12" t="n">
-        <f aca="false">-H54</f>
-        <v>-48772000</v>
-      </c>
+      <c r="N54" s="5"/>
+      <c r="O54" s="12"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>42544</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="15" t="n">
+      <c r="F55" s="11" t="n">
         <v>10200</v>
       </c>
-      <c r="G55" s="15" t="n">
+      <c r="G55" s="11" t="n">
         <v>3560</v>
       </c>
-      <c r="H55" s="24" t="n">
+      <c r="H55" s="18" t="n">
         <v>36312000</v>
       </c>
       <c r="I55" s="5"/>
@@ -2953,37 +2843,32 @@
       <c r="K55" s="10"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
-      <c r="N55" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O55" s="12" t="n">
-        <f aca="false">-H55</f>
-        <v>-36312000</v>
-      </c>
+      <c r="N55" s="5"/>
+      <c r="O55" s="12"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>42544</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="14" t="s">
+      <c r="B56" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F56" s="15" t="n">
+      <c r="F56" s="11" t="n">
         <v>5300</v>
       </c>
-      <c r="G56" s="15" t="n">
+      <c r="G56" s="11" t="n">
         <v>3530</v>
       </c>
-      <c r="H56" s="24" t="n">
+      <c r="H56" s="18" t="n">
         <v>18709000</v>
       </c>
       <c r="I56" s="5"/>
@@ -2991,37 +2876,32 @@
       <c r="K56" s="10"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
-      <c r="N56" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O56" s="12" t="n">
-        <f aca="false">-H56</f>
-        <v>-18709000</v>
-      </c>
+      <c r="N56" s="5"/>
+      <c r="O56" s="12"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>42548</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="14" t="s">
+      <c r="B57" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="15" t="n">
+      <c r="F57" s="11" t="n">
         <v>20000</v>
       </c>
-      <c r="G57" s="15" t="n">
+      <c r="G57" s="11" t="n">
         <v>3560</v>
       </c>
-      <c r="H57" s="24" t="n">
+      <c r="H57" s="18" t="n">
         <v>71200000</v>
       </c>
       <c r="I57" s="5" t="n">
@@ -3045,25 +2925,25 @@
       <c r="A58" s="6" t="n">
         <v>42548</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="14" t="s">
+      <c r="B58" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F58" s="15" t="n">
+      <c r="F58" s="11" t="n">
         <v>10000</v>
       </c>
-      <c r="G58" s="15" t="n">
+      <c r="G58" s="11" t="n">
         <v>4085</v>
       </c>
-      <c r="H58" s="24" t="n">
+      <c r="H58" s="18" t="n">
         <v>40850000</v>
       </c>
       <c r="I58" s="5"/>
@@ -3071,37 +2951,32 @@
       <c r="K58" s="10"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O58" s="12" t="n">
-        <f aca="false">-H58</f>
-        <v>-40850000</v>
-      </c>
+      <c r="N58" s="5"/>
+      <c r="O58" s="12"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>42549</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="14" t="s">
+      <c r="B59" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F59" s="15" t="n">
+      <c r="F59" s="11" t="n">
         <v>10200</v>
       </c>
-      <c r="G59" s="15" t="n">
+      <c r="G59" s="11" t="n">
         <v>3560</v>
       </c>
-      <c r="H59" s="24" t="n">
+      <c r="H59" s="18" t="n">
         <v>36312000</v>
       </c>
       <c r="I59" s="5"/>
@@ -3109,37 +2984,32 @@
       <c r="K59" s="10"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
-      <c r="N59" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O59" s="12" t="n">
-        <f aca="false">-H59</f>
-        <v>-36312000</v>
-      </c>
+      <c r="N59" s="5"/>
+      <c r="O59" s="12"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>42549</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="14" t="s">
+      <c r="B60" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="15" t="n">
+      <c r="F60" s="11" t="n">
         <v>5300</v>
       </c>
-      <c r="G60" s="15" t="n">
+      <c r="G60" s="11" t="n">
         <v>3530</v>
       </c>
-      <c r="H60" s="24" t="n">
+      <c r="H60" s="18" t="n">
         <v>18709000</v>
       </c>
       <c r="I60" s="5"/>
@@ -3147,37 +3017,32 @@
       <c r="K60" s="10"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
-      <c r="N60" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O60" s="12" t="n">
-        <f aca="false">-H60</f>
-        <v>-18709000</v>
-      </c>
+      <c r="N60" s="5"/>
+      <c r="O60" s="12"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>42549</v>
       </c>
-      <c r="B61" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="14" t="s">
+      <c r="B61" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="15" t="n">
+      <c r="F61" s="11" t="n">
         <v>20000</v>
       </c>
-      <c r="G61" s="15" t="n">
+      <c r="G61" s="11" t="n">
         <v>3560</v>
       </c>
-      <c r="H61" s="24" t="n">
+      <c r="H61" s="18" t="n">
         <v>71200000</v>
       </c>
       <c r="I61" s="5" t="n">
@@ -3201,25 +3066,25 @@
       <c r="A62" s="6" t="n">
         <v>42549</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="14" t="s">
+      <c r="B62" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F62" s="15" t="n">
+      <c r="F62" s="11" t="n">
         <v>5000</v>
       </c>
-      <c r="G62" s="15" t="n">
+      <c r="G62" s="11" t="n">
         <v>3530</v>
       </c>
-      <c r="H62" s="24" t="n">
+      <c r="H62" s="18" t="n">
         <v>17650000</v>
       </c>
       <c r="I62" s="5" t="n">
@@ -3241,25 +3106,25 @@
       <c r="A63" s="6" t="n">
         <v>42549</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="14" t="s">
+      <c r="B63" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F63" s="15" t="n">
+      <c r="F63" s="11" t="n">
         <v>5000</v>
       </c>
-      <c r="G63" s="15" t="n">
+      <c r="G63" s="11" t="n">
         <v>4085</v>
       </c>
-      <c r="H63" s="24" t="n">
+      <c r="H63" s="18" t="n">
         <v>20425000</v>
       </c>
       <c r="I63" s="5" t="n">
@@ -3281,25 +3146,25 @@
       <c r="A64" s="6" t="n">
         <v>42549</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F64" s="15" t="n">
+      <c r="B64" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" s="11" t="n">
         <v>4900</v>
       </c>
-      <c r="G64" s="15" t="n">
+      <c r="G64" s="11" t="n">
         <v>4765</v>
       </c>
-      <c r="H64" s="24" t="n">
+      <c r="H64" s="18" t="n">
         <v>23348500</v>
       </c>
       <c r="I64" s="5" t="n">
@@ -3323,25 +3188,25 @@
       <c r="A65" s="6" t="n">
         <v>42550</v>
       </c>
-      <c r="B65" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="14" t="s">
+      <c r="B65" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F65" s="15" t="n">
+      <c r="F65" s="11" t="n">
         <v>13700</v>
       </c>
-      <c r="G65" s="15" t="n">
+      <c r="G65" s="11" t="n">
         <v>3560</v>
       </c>
-      <c r="H65" s="24" t="n">
+      <c r="H65" s="18" t="n">
         <v>48772000</v>
       </c>
       <c r="I65" s="5" t="n">
@@ -3365,25 +3230,25 @@
       <c r="A66" s="6" t="n">
         <v>42550</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="14" t="s">
+      <c r="B66" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="15" t="n">
+      <c r="F66" s="11" t="n">
         <v>30000</v>
       </c>
-      <c r="G66" s="15" t="n">
+      <c r="G66" s="11" t="n">
         <v>3560</v>
       </c>
-      <c r="H66" s="24" t="n">
+      <c r="H66" s="18" t="n">
         <v>106800000</v>
       </c>
       <c r="I66" s="5" t="n">
@@ -3407,25 +3272,25 @@
       <c r="A67" s="6" t="n">
         <v>42550</v>
       </c>
-      <c r="B67" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="14" t="s">
+      <c r="B67" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="15" t="n">
+      <c r="F67" s="11" t="n">
         <v>10200</v>
       </c>
-      <c r="G67" s="15" t="n">
+      <c r="G67" s="11" t="n">
         <v>3560</v>
       </c>
-      <c r="H67" s="24" t="n">
+      <c r="H67" s="18" t="n">
         <v>36312000</v>
       </c>
       <c r="I67" s="5" t="n">
@@ -3449,25 +3314,25 @@
       <c r="A68" s="6" t="n">
         <v>42550</v>
       </c>
-      <c r="B68" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="14" t="s">
+      <c r="B68" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F68" s="15" t="n">
+      <c r="F68" s="11" t="n">
         <v>5300</v>
       </c>
-      <c r="G68" s="15" t="n">
+      <c r="G68" s="11" t="n">
         <v>4085</v>
       </c>
-      <c r="H68" s="24" t="n">
+      <c r="H68" s="18" t="n">
         <v>21650500</v>
       </c>
       <c r="I68" s="5" t="n">
@@ -3487,12 +3352,12 @@
       </c>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H69" s="26" t="n">
+    <row r="69" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H69" s="22" t="n">
         <f aca="false">SUM(H2:H68)</f>
         <v>2828390000</v>
       </c>
-      <c r="K69" s="27" t="n">
+      <c r="K69" s="23" t="n">
         <f aca="false">SUM(K2:K68)</f>
         <v>1855361500</v>
       </c>
@@ -3505,18 +3370,8 @@
         <f aca="false">K69-H69</f>
         <v>-973028500</v>
       </c>
-      <c r="O72" s="12" t="n">
-        <f aca="false">SUM(O1:O71)</f>
-        <v>-973028500</v>
-      </c>
-    </row>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="O72" s="12"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
